--- a/Examples/Dictionary/Input/Exp63_RatingsSetup_filledin.xlsx
+++ b/Examples/Dictionary/Input/Exp63_RatingsSetup_filledin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/Dictionary/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9362E-3B07-3545-AD9C-AAC7D2CB5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05163BA3-CA69-B94F-A238-4FC108437F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="900" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rating_scales" sheetId="1" r:id="rId1"/>
@@ -78,15 +78,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>ESTIMATED RESULTS</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>PRIORITIES</t>
+  </si>
+  <si>
+    <t>alt I</t>
+  </si>
+  <si>
+    <t>alt II</t>
+  </si>
+  <si>
+    <t>alt III</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>3</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1105,10 +1105,10 @@
         <v>0.28547448681103738</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
         <f>INDEX(rating_scales!H3:H5, MATCH(B2,rating_scales!A3:A5, 0))</f>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8">
         <f>INDEX(rating_scales!H3:H5, MATCH(B3,rating_scales!A3:A5, 0))</f>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8">
         <f>INDEX(rating_scales!H3:H5, MATCH(B4,rating_scales!A3:A5, 0))</f>
